--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.5440274030387</v>
+        <v>212.7875695253318</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.3965474499552</v>
+        <v>291.1453401494534</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.6899295881476</v>
+        <v>263.3588375107266</v>
       </c>
       <c r="AD2" t="n">
-        <v>181544.0274030387</v>
+        <v>212787.5695253318</v>
       </c>
       <c r="AE2" t="n">
-        <v>248396.5474499553</v>
+        <v>291145.3401494534</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.794661294704026e-06</v>
+        <v>4.724513579173912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.249228395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>224689.9295881476</v>
+        <v>263358.8375107266</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.9113594695642</v>
+        <v>145.984219882714</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.2267915575803</v>
+        <v>199.7420500126831</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.2212872405559</v>
+        <v>180.6789490992573</v>
       </c>
       <c r="AD3" t="n">
-        <v>114911.3594695642</v>
+        <v>145984.219882714</v>
       </c>
       <c r="AE3" t="n">
-        <v>157226.7915575803</v>
+        <v>199742.0500126831</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.784633019755628e-06</v>
+        <v>6.398109899009822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.354938271604939</v>
       </c>
       <c r="AH3" t="n">
-        <v>142221.2872405559</v>
+        <v>180678.9490992573</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.6063805478185</v>
+        <v>145.6792409609684</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.8095059421276</v>
+        <v>199.3247643972305</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.8438267785779</v>
+        <v>180.3014886372792</v>
       </c>
       <c r="AD4" t="n">
-        <v>114606.3805478185</v>
+        <v>145679.2409609684</v>
       </c>
       <c r="AE4" t="n">
-        <v>156809.5059421276</v>
+        <v>199324.7643972305</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.803854751923739e-06</v>
+        <v>6.430605190949341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.327932098765433</v>
       </c>
       <c r="AH4" t="n">
-        <v>141843.8267785779</v>
+        <v>180301.4886372793</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.9617958146506</v>
+        <v>169.14824800021</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.1336595952788</v>
+        <v>231.4360952078219</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.9875699778262</v>
+        <v>209.3481591038539</v>
       </c>
       <c r="AD2" t="n">
-        <v>138961.7958146506</v>
+        <v>169148.24800021</v>
       </c>
       <c r="AE2" t="n">
-        <v>190133.6595952788</v>
+        <v>231436.0952078219</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.338061495447587e-06</v>
+        <v>5.780824880241702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.280864197530865</v>
       </c>
       <c r="AH2" t="n">
-        <v>171987.5699778262</v>
+        <v>209348.1591038539</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.9504490786889</v>
+        <v>139.0515604096767</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.0708109839824</v>
+        <v>190.2564794743279</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.8437020059089</v>
+        <v>172.0986680999978</v>
       </c>
       <c r="AD3" t="n">
-        <v>108950.449078689</v>
+        <v>139051.5604096767</v>
       </c>
       <c r="AE3" t="n">
-        <v>149070.8109839824</v>
+        <v>190256.4794743279</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.90129587515015e-06</v>
+        <v>6.756229114115919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>134843.7020059089</v>
+        <v>172098.6680999978</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.9929367782205</v>
+        <v>135.2537822703456</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.7607004120207</v>
+        <v>185.060191877951</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.6586265481832</v>
+        <v>167.398306898782</v>
       </c>
       <c r="AD2" t="n">
-        <v>107992.9367782205</v>
+        <v>135253.7822703456</v>
       </c>
       <c r="AE2" t="n">
-        <v>147760.7004120207</v>
+        <v>185060.191877951</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889929732203436e-06</v>
+        <v>7.360584126217026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.010802469135802</v>
       </c>
       <c r="AH2" t="n">
-        <v>133658.6265481832</v>
+        <v>167398.306898782</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5377282700699</v>
+        <v>130.0276206069869</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.9283993474732</v>
+        <v>177.9095269281669</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.6692679010208</v>
+        <v>160.9300913757817</v>
       </c>
       <c r="AD2" t="n">
-        <v>101537.7282700699</v>
+        <v>130027.6206069869</v>
       </c>
       <c r="AE2" t="n">
-        <v>138928.3993474732</v>
+        <v>177909.5269281669</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.963567473794926e-06</v>
+        <v>7.220759150359925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.64429012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>125669.2679010209</v>
+        <v>160930.0913757817</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.2275688181035</v>
+        <v>133.7208595738767</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.7134902033379</v>
+        <v>182.9627794168669</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7113606120479</v>
+        <v>165.5010685392462</v>
       </c>
       <c r="AD2" t="n">
-        <v>107227.5688181035</v>
+        <v>133720.8595738767</v>
       </c>
       <c r="AE2" t="n">
-        <v>146713.4902033379</v>
+        <v>182962.7794168669</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.710471120446631e-06</v>
+        <v>7.271327880545114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.547067901234567</v>
       </c>
       <c r="AH2" t="n">
-        <v>132711.3606120479</v>
+        <v>165501.0685392462</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.1068680406054</v>
+        <v>176.5487361646327</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.9098626331649</v>
+        <v>241.5617696008756</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.8307459187668</v>
+        <v>218.507453344311</v>
       </c>
       <c r="AD2" t="n">
-        <v>146106.8680406054</v>
+        <v>176548.7361646327</v>
       </c>
       <c r="AE2" t="n">
-        <v>199909.8626331649</v>
+        <v>241561.7696008756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.197054744562867e-06</v>
+        <v>5.500472606695539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.496913580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>180830.7459187668</v>
+        <v>218507.453344311</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.5240378683163</v>
+        <v>140.8805651377719</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.2238645877873</v>
+        <v>192.7590044333003</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.7912711955971</v>
+        <v>174.3623555892025</v>
       </c>
       <c r="AD3" t="n">
-        <v>110524.0378683163</v>
+        <v>140880.5651377719</v>
       </c>
       <c r="AE3" t="n">
-        <v>151223.8645877872</v>
+        <v>192759.0044333003</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865820082177433e-06</v>
+        <v>6.651070802147894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>136791.2711955971</v>
+        <v>174362.3555892025</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.5963166127814</v>
+        <v>142.4488325700959</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.5322242559918</v>
+        <v>194.9047771212811</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.3066926779268</v>
+        <v>176.3033387434539</v>
       </c>
       <c r="AD2" t="n">
-        <v>116596.3166127814</v>
+        <v>142448.8325700959</v>
       </c>
       <c r="AE2" t="n">
-        <v>159532.2242559918</v>
+        <v>194904.7771212811</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.538650328838669e-06</v>
+        <v>7.093792100887134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.025462962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>144306.6926779268</v>
+        <v>176303.3387434539</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7809460070965</v>
+        <v>137.223701240041</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4706452865963</v>
+        <v>187.7555219189782</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3962538768342</v>
+        <v>169.8363984236139</v>
       </c>
       <c r="AD2" t="n">
-        <v>107780.9460070965</v>
+        <v>137223.701240041</v>
       </c>
       <c r="AE2" t="n">
-        <v>147470.6452865963</v>
+        <v>187755.5219189782</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854749529878684e-06</v>
+        <v>6.827047851902497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.601851851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>133396.2538768342</v>
+        <v>169836.3984236139</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.4130812907732</v>
+        <v>134.6852443231254</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.2308283189057</v>
+        <v>184.2822931764407</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.4656404934272</v>
+        <v>166.6946497575559</v>
       </c>
       <c r="AD3" t="n">
-        <v>105413.0812907732</v>
+        <v>134685.2443231254</v>
       </c>
       <c r="AE3" t="n">
-        <v>144230.8283189056</v>
+        <v>184282.2931764407</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.946214747290129e-06</v>
+        <v>6.989039548434918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.47067901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>130465.6404934272</v>
+        <v>166694.6497575559</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.4128636716515</v>
+        <v>161.3341874071075</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.804877601851</v>
+        <v>220.744552772321</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.6445524413113</v>
+        <v>199.6770024727197</v>
       </c>
       <c r="AD2" t="n">
-        <v>131412.8636716515</v>
+        <v>161334.1874071075</v>
       </c>
       <c r="AE2" t="n">
-        <v>179804.877601851</v>
+        <v>220744.552772321</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.504907290271339e-06</v>
+        <v>6.11225226851728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.037808641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>162644.5524413113</v>
+        <v>199677.0024727197</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3506775346014</v>
+        <v>136.1866604154857</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5136888635377</v>
+        <v>186.3365969118102</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6260666281861</v>
+        <v>168.5528936276557</v>
       </c>
       <c r="AD3" t="n">
-        <v>106350.6775346014</v>
+        <v>136186.6604154857</v>
       </c>
       <c r="AE3" t="n">
-        <v>145513.6888635377</v>
+        <v>186336.5969118102</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.97049148535957e-06</v>
+        <v>6.924190450309677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.327932098765433</v>
       </c>
       <c r="AH3" t="n">
-        <v>131626.0666281861</v>
+        <v>168552.8936276557</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.9577978327958</v>
+        <v>203.2221582736211</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.5978040684977</v>
+        <v>278.0575224787078</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.4488206627352</v>
+        <v>251.5201027896054</v>
       </c>
       <c r="AD2" t="n">
-        <v>161957.7978327958</v>
+        <v>203222.1582736211</v>
       </c>
       <c r="AE2" t="n">
-        <v>221597.8040684977</v>
+        <v>278057.5224787078</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.927801628181853e-06</v>
+        <v>4.977068723819495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.975308641975308</v>
       </c>
       <c r="AH2" t="n">
-        <v>200448.8206627352</v>
+        <v>251520.1027896054</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.0412329903969</v>
+        <v>143.8829167613524</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.6680020046275</v>
+        <v>196.8669543790865</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.9067049712524</v>
+        <v>178.0782485577081</v>
       </c>
       <c r="AD3" t="n">
-        <v>113041.2329903969</v>
+        <v>143882.9167613524</v>
       </c>
       <c r="AE3" t="n">
-        <v>154668.0020046275</v>
+        <v>196866.9543790865</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.827804439463084e-06</v>
+        <v>6.507013854070377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.335648148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>139906.7049712524</v>
+        <v>178078.2485577081</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.5251526553815</v>
+        <v>131.3495917388431</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.2794369535453</v>
+        <v>179.7183061520218</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.891364374163</v>
+        <v>162.5662432491501</v>
       </c>
       <c r="AD2" t="n">
-        <v>102525.1526553815</v>
+        <v>131349.5917388431</v>
       </c>
       <c r="AE2" t="n">
-        <v>140279.4369535453</v>
+        <v>179718.3061520218</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969629307657251e-06</v>
+        <v>7.158181014557004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>126891.364374163</v>
+        <v>162566.2432491501</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.8438209027474</v>
+        <v>131.668259986209</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.715452908242</v>
+        <v>180.1543221067185</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.2857675780958</v>
+        <v>162.9606464530829</v>
       </c>
       <c r="AD3" t="n">
-        <v>102843.8209027474</v>
+        <v>131668.259986209</v>
       </c>
       <c r="AE3" t="n">
-        <v>140715.4529082419</v>
+        <v>180154.3221067185</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.96888478381613e-06</v>
+        <v>7.156838461887385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>127285.7675780958</v>
+        <v>162960.6464530829</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.71327704672649</v>
+        <v>127.4684385451548</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4321046945886</v>
+        <v>174.4079411280257</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4112161062352</v>
+        <v>157.7626920098984</v>
       </c>
       <c r="AD2" t="n">
-        <v>99713.27704672649</v>
+        <v>127468.4385451548</v>
       </c>
       <c r="AE2" t="n">
-        <v>136432.1046945886</v>
+        <v>174407.9411280257</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925938442782339e-06</v>
+        <v>7.324546236519208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.864197530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>123411.2161062352</v>
+        <v>157762.6920098984</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7239228165651</v>
+        <v>134.5391394100223</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.3926236416257</v>
+        <v>184.0823859886393</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3256785081555</v>
+        <v>166.5138214311866</v>
       </c>
       <c r="AD2" t="n">
-        <v>107723.9228165651</v>
+        <v>134539.1394100223</v>
       </c>
       <c r="AE2" t="n">
-        <v>147392.6236416257</v>
+        <v>184082.3859886393</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809352217681172e-06</v>
+        <v>7.325525579124339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>133325.6785081555</v>
+        <v>166513.8214311866</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.0302479571342</v>
+        <v>152.6385149575442</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.8624364988062</v>
+        <v>208.8467501008411</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.3190741382703</v>
+        <v>188.9147093895311</v>
       </c>
       <c r="AD2" t="n">
-        <v>119030.2479571342</v>
+        <v>152638.5149575442</v>
       </c>
       <c r="AE2" t="n">
-        <v>162862.4364988062</v>
+        <v>208846.7501008411</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.237653220327637e-06</v>
+        <v>6.677981335055681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.893518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>147319.0741382703</v>
+        <v>188914.7093895311</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9833023894662</v>
+        <v>143.7139803000279</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.956982917602</v>
+        <v>196.6358080597518</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.0726673549892</v>
+        <v>177.8691625186747</v>
       </c>
       <c r="AD2" t="n">
-        <v>113983.3023894662</v>
+        <v>143713.9803000279</v>
       </c>
       <c r="AE2" t="n">
-        <v>155956.982917602</v>
+        <v>196635.8080597518</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.687574363456794e-06</v>
+        <v>6.478922689987118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.794753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>141072.6673549892</v>
+        <v>177869.1625186747</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.9882974226431</v>
+        <v>136.5483831326127</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.3861085241601</v>
+        <v>186.831521891463</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.4152237808477</v>
+        <v>169.0005836618823</v>
       </c>
       <c r="AD3" t="n">
-        <v>106988.2974226431</v>
+        <v>136548.3831326127</v>
       </c>
       <c r="AE3" t="n">
-        <v>146386.1085241601</v>
+        <v>186831.521891463</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.91607091975397e-06</v>
+        <v>6.880382125720349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.455246913580248</v>
       </c>
       <c r="AH3" t="n">
-        <v>132415.2237808477</v>
+        <v>169000.5836618823</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.0435838114758</v>
+        <v>194.9898700465659</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.7692272940523</v>
+        <v>266.7937425435322</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.6537080576366</v>
+        <v>241.3313222026249</v>
       </c>
       <c r="AD2" t="n">
-        <v>154043.5838114758</v>
+        <v>194989.8700465659</v>
       </c>
       <c r="AE2" t="n">
-        <v>210769.2272940523</v>
+        <v>266793.7425435322</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.055388674384641e-06</v>
+        <v>5.224374133364613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.739969135802469</v>
       </c>
       <c r="AH2" t="n">
-        <v>190653.7080576366</v>
+        <v>241331.3222026249</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.6289163025845</v>
+        <v>142.2320444192386</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.7356080053486</v>
+        <v>194.60815800926</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.1587359431321</v>
+        <v>176.0350285431765</v>
       </c>
       <c r="AD3" t="n">
-        <v>111628.9163025845</v>
+        <v>142232.0444192386</v>
       </c>
       <c r="AE3" t="n">
-        <v>152735.6080053487</v>
+        <v>194608.15800926</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.853718391612048e-06</v>
+        <v>6.589428982047373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.343364197530864</v>
       </c>
       <c r="AH3" t="n">
-        <v>138158.7359431321</v>
+        <v>176035.0285431765</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.8385026806438</v>
+        <v>183.5281450143794</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.4379409575643</v>
+        <v>251.1113046988815</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.7856181715026</v>
+        <v>227.145594215423</v>
       </c>
       <c r="AD2" t="n">
-        <v>142838.5026806438</v>
+        <v>183528.1450143794</v>
       </c>
       <c r="AE2" t="n">
-        <v>195437.9409575643</v>
+        <v>251111.3046988815</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.695109459733649e-06</v>
+        <v>5.776860913918843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.818672839506172</v>
       </c>
       <c r="AH2" t="n">
-        <v>176785.6181715026</v>
+        <v>227145.594215423</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.5533297408608</v>
+        <v>128.6880616660986</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.5815018512119</v>
+        <v>176.0766832880748</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.4509164114198</v>
+        <v>159.2721717602872</v>
       </c>
       <c r="AD2" t="n">
-        <v>100553.3297408608</v>
+        <v>128688.0616660986</v>
       </c>
       <c r="AE2" t="n">
-        <v>137581.5018512119</v>
+        <v>176076.6832880748</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.951017726097572e-06</v>
+        <v>7.279483605334898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.740740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>124450.9164114198</v>
+        <v>159272.1717602872</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.0415839858222</v>
+        <v>133.1828767085289</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.3542852000819</v>
+        <v>182.2266875263694</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.7681920161186</v>
+        <v>164.8352282256661</v>
       </c>
       <c r="AD2" t="n">
-        <v>104041.5839858222</v>
+        <v>133182.8767085289</v>
       </c>
       <c r="AE2" t="n">
-        <v>142354.2852000819</v>
+        <v>182226.6875263694</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.949162588417449e-06</v>
+        <v>7.054890761112362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.528549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>128768.1920161186</v>
+        <v>164835.2282256661</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.456094592184</v>
+        <v>133.5973873148907</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.9214368986232</v>
+        <v>182.7938392249107</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.2812155525537</v>
+        <v>165.3482517621012</v>
       </c>
       <c r="AD3" t="n">
-        <v>104456.094592184</v>
+        <v>133597.3873148907</v>
       </c>
       <c r="AE3" t="n">
-        <v>142921.4368986232</v>
+        <v>182793.8392249107</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.944747776356959e-06</v>
+        <v>7.04700402155169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.536265432098765</v>
       </c>
       <c r="AH3" t="n">
-        <v>129281.2155525537</v>
+        <v>165348.2517621012</v>
       </c>
     </row>
   </sheetData>
